--- a/biology/Botanique/Cubèbe/Cubèbe.xlsx
+++ b/biology/Botanique/Cubèbe/Cubèbe.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cub%C3%A8be</t>
+          <t>Cubèbe</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,13 +490,15 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Piper cubeba
-Le cubèbe (Piper cubeba) est une épice originaire d'Asie du Sud-Est[1]. Il porte aussi le nom de cubèche, embèbe, poivre à queue, poivre de Java ou encore poivre du Kissi.
+Le cubèbe (Piper cubeba) est une épice originaire d'Asie du Sud-Est. Il porte aussi le nom de cubèche, embèbe, poivre à queue, poivre de Java ou encore poivre du Kissi.
 L'épice est obtenue à partir des baies, récoltées avant maturité, séchées et moulues.
 De la même famille que le poivre, son goût est généralement plus fort. Son emploi est fréquent dans les poudres de curry.
-Le cubébol, un sesquiterpène alcool au goût frais[2], a été identifié dans l'huile essentielle de la baie du cubèbe (15 %)[3].
+Le cubébol, un sesquiterpène alcool au goût frais, a été identifié dans l'huile essentielle de la baie du cubèbe (15 %).
 Le cubèbe peut se consommer directement en mâchant la baie, il laisse un goût frais dans la bouche.
 </t>
         </is>
@@ -498,7 +510,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cub%C3%A8be</t>
+          <t>Cubèbe</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -516,7 +528,9 @@
           <t>Autres Piper cubeba</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Piper cubeba Vahl, 1804 est un synonyme de Piper caninum.
 Piper cubeba Bojer, 1837 est un synonyme de Piper pyrifolium.</t>
